--- a/database/_legacy-data/clubs_seasons.xlsx
+++ b/database/_legacy-data/clubs_seasons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="0" windowWidth="17220" windowHeight="16500" xr2:uid="{5F91846B-17BF-40A2-8EA1-0BD4ACB538D6}"/>
+    <workbookView xWindow="9270" yWindow="0" windowWidth="17220" windowHeight="16500" xr2:uid="{5F91846B-17BF-40A2-8EA1-0BD4ACB538D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -508,10 +508,10 @@
   <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C370" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B387" sqref="B387"/>
+      <selection pane="bottomRight" activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,11 +575,11 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" ref="H2:I21" ca="1" si="0">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -606,11 +606,11 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,11 +637,11 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -668,11 +668,11 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,11 +699,11 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -730,11 +730,11 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -761,11 +761,11 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,11 +792,11 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,11 +823,11 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -854,11 +854,11 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -885,11 +885,11 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,11 +916,11 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,11 +947,11 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,11 +978,11 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1040,11 +1040,11 @@
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22:I41" ca="1" si="1">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,11 +1381,11 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1443,11 +1443,11 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1567,11 +1567,11 @@
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1629,11 +1629,11 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="H37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1691,11 +1691,11 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1722,11 +1722,11 @@
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1753,11 +1753,11 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1815,11 +1815,11 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" ref="H42:I61" ca="1" si="2">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1846,11 +1846,11 @@
       </c>
       <c r="H43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,11 +1877,11 @@
       </c>
       <c r="H44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1939,11 +1939,11 @@
       </c>
       <c r="H46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1970,11 +1970,11 @@
       </c>
       <c r="H47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,11 +2001,11 @@
       </c>
       <c r="H48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="H49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="H51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="H52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,11 +2156,11 @@
       </c>
       <c r="H53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,11 +2187,11 @@
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2218,11 +2218,11 @@
       </c>
       <c r="H55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2249,11 +2249,11 @@
       </c>
       <c r="H56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2280,11 +2280,11 @@
       </c>
       <c r="H57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="H58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2342,11 +2342,11 @@
       </c>
       <c r="H59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,11 +2373,11 @@
       </c>
       <c r="H60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,11 +2404,11 @@
       </c>
       <c r="H61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2435,11 +2435,11 @@
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:I81" ca="1" si="3">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="H63" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,11 +2497,11 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="H65" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,11 +2559,11 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,11 +2590,11 @@
       </c>
       <c r="H67" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,11 +2621,11 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2683,11 +2683,11 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2745,11 +2745,11 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,11 +2776,11 @@
       </c>
       <c r="H73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2807,11 +2807,11 @@
       </c>
       <c r="H74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,11 +2838,11 @@
       </c>
       <c r="H75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="H76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,11 +2900,11 @@
       </c>
       <c r="H77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="H78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2962,11 +2962,11 @@
       </c>
       <c r="H79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="H80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3024,11 +3024,11 @@
       </c>
       <c r="H81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,11 +3055,11 @@
       </c>
       <c r="H82" s="2">
         <f t="shared" ref="H82:I101" ca="1" si="4">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,11 +3086,11 @@
       </c>
       <c r="H83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="H84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="H85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3179,11 +3179,11 @@
       </c>
       <c r="H86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3210,11 +3210,11 @@
       </c>
       <c r="H87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3241,11 +3241,11 @@
       </c>
       <c r="H88" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="H89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="H90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,11 +3334,11 @@
       </c>
       <c r="H91" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="H92" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3396,11 +3396,11 @@
       </c>
       <c r="H93" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,11 +3427,11 @@
       </c>
       <c r="H94" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3458,11 +3458,11 @@
       </c>
       <c r="H95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3489,11 +3489,11 @@
       </c>
       <c r="H96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,11 +3520,11 @@
       </c>
       <c r="H97" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3551,11 +3551,11 @@
       </c>
       <c r="H98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,11 +3582,11 @@
       </c>
       <c r="H99" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3613,11 +3613,11 @@
       </c>
       <c r="H100" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,11 +3644,11 @@
       </c>
       <c r="H101" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="H102" s="2">
         <f t="shared" ref="H102:I121" ca="1" si="5">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="H103" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,11 +3737,11 @@
       </c>
       <c r="H104" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3768,11 +3768,11 @@
       </c>
       <c r="H105" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="H106" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3830,11 +3830,11 @@
       </c>
       <c r="H107" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3861,11 +3861,11 @@
       </c>
       <c r="H108" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="H109" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,11 +3954,11 @@
       </c>
       <c r="H111" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3985,11 +3985,11 @@
       </c>
       <c r="H112" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,11 +4016,11 @@
       </c>
       <c r="H113" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4047,11 +4047,11 @@
       </c>
       <c r="H114" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4078,11 +4078,11 @@
       </c>
       <c r="H115" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4109,11 +4109,11 @@
       </c>
       <c r="H116" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4140,11 +4140,11 @@
       </c>
       <c r="H117" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I117" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4171,11 +4171,11 @@
       </c>
       <c r="H118" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I118" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4202,11 +4202,11 @@
       </c>
       <c r="H119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4233,11 +4233,11 @@
       </c>
       <c r="H120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,11 +4264,11 @@
       </c>
       <c r="H121" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I121" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4295,11 +4295,11 @@
       </c>
       <c r="H122" s="2">
         <f t="shared" ref="H122:I141" ca="1" si="6">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I122" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4326,11 +4326,11 @@
       </c>
       <c r="H123" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I123" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4357,11 +4357,11 @@
       </c>
       <c r="H124" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I124" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,11 +4388,11 @@
       </c>
       <c r="H125" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I125" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,11 +4419,11 @@
       </c>
       <c r="H126" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I126" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4450,11 +4450,11 @@
       </c>
       <c r="H127" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I127" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="H128" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I128" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4512,11 +4512,11 @@
       </c>
       <c r="H129" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I129" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="H130" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I130" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I131" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I132" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4636,11 +4636,11 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I133" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4667,11 +4667,11 @@
       </c>
       <c r="H134" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I134" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4698,11 +4698,11 @@
       </c>
       <c r="H135" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I135" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="H136" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I136" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4760,11 +4760,11 @@
       </c>
       <c r="H137" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I137" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4791,11 +4791,11 @@
       </c>
       <c r="H138" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I138" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4822,11 +4822,11 @@
       </c>
       <c r="H139" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I139" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4853,11 +4853,11 @@
       </c>
       <c r="H140" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I140" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="H141" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I141" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4915,11 +4915,11 @@
       </c>
       <c r="H142" s="2">
         <f t="shared" ref="H142:I161" ca="1" si="7">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I142" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="H143" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I143" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,11 +4977,11 @@
       </c>
       <c r="H144" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I144" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,11 +5008,11 @@
       </c>
       <c r="H145" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I145" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5039,11 +5039,11 @@
       </c>
       <c r="H146" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I146" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5070,11 +5070,11 @@
       </c>
       <c r="H147" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I147" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5101,11 +5101,11 @@
       </c>
       <c r="H148" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I148" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5132,11 +5132,11 @@
       </c>
       <c r="H149" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I149" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5163,11 +5163,11 @@
       </c>
       <c r="H150" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I150" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5194,11 +5194,11 @@
       </c>
       <c r="H151" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I151" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5225,11 +5225,11 @@
       </c>
       <c r="H152" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I152" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5256,11 +5256,11 @@
       </c>
       <c r="H153" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I153" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="H154" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I154" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5318,11 +5318,11 @@
       </c>
       <c r="H155" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I155" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5349,11 +5349,11 @@
       </c>
       <c r="H156" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I156" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5380,11 +5380,11 @@
       </c>
       <c r="H157" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I157" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5411,11 +5411,11 @@
       </c>
       <c r="H158" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I158" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5442,11 +5442,11 @@
       </c>
       <c r="H159" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I159" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5473,11 +5473,11 @@
       </c>
       <c r="H160" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I160" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,11 +5504,11 @@
       </c>
       <c r="H161" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I161" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,11 +5535,11 @@
       </c>
       <c r="H162" s="2">
         <f t="shared" ref="H162:I181" ca="1" si="8">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I162" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,11 +5566,11 @@
       </c>
       <c r="H163" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I163" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5597,11 +5597,11 @@
       </c>
       <c r="H164" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I164" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5628,11 +5628,11 @@
       </c>
       <c r="H165" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I165" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5659,11 +5659,11 @@
       </c>
       <c r="H166" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I166" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="H167" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I167" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5721,11 +5721,11 @@
       </c>
       <c r="H168" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I168" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5752,11 +5752,11 @@
       </c>
       <c r="H169" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I169" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5783,11 +5783,11 @@
       </c>
       <c r="H170" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I170" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5814,11 +5814,11 @@
       </c>
       <c r="H171" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I171" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="H172" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I172" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5876,11 +5876,11 @@
       </c>
       <c r="H173" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I173" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5907,11 +5907,11 @@
       </c>
       <c r="H174" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I174" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5938,11 +5938,11 @@
       </c>
       <c r="H175" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I175" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5969,11 +5969,11 @@
       </c>
       <c r="H176" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I176" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6000,11 +6000,11 @@
       </c>
       <c r="H177" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I177" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6031,11 +6031,11 @@
       </c>
       <c r="H178" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I178" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6062,11 +6062,11 @@
       </c>
       <c r="H179" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I179" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6093,11 +6093,11 @@
       </c>
       <c r="H180" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I180" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6124,11 +6124,11 @@
       </c>
       <c r="H181" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I181" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6155,11 +6155,11 @@
       </c>
       <c r="H182" s="2">
         <f t="shared" ref="H182:I201" ca="1" si="9">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I182" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6186,11 +6186,11 @@
       </c>
       <c r="H183" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I183" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6217,11 +6217,11 @@
       </c>
       <c r="H184" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I184" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6248,11 +6248,11 @@
       </c>
       <c r="H185" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I185" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6279,11 +6279,11 @@
       </c>
       <c r="H186" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I186" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6310,11 +6310,11 @@
       </c>
       <c r="H187" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I187" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,11 +6341,11 @@
       </c>
       <c r="H188" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I188" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6372,11 +6372,11 @@
       </c>
       <c r="H189" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I189" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6403,11 +6403,11 @@
       </c>
       <c r="H190" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I190" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6434,11 +6434,11 @@
       </c>
       <c r="H191" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I191" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6465,11 +6465,11 @@
       </c>
       <c r="H192" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I192" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6496,11 +6496,11 @@
       </c>
       <c r="H193" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I193" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6527,11 +6527,11 @@
       </c>
       <c r="H194" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I194" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6558,11 +6558,11 @@
       </c>
       <c r="H195" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I195" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6589,11 +6589,11 @@
       </c>
       <c r="H196" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I196" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="H197" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I197" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,11 +6651,11 @@
       </c>
       <c r="H198" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I198" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6682,11 +6682,11 @@
       </c>
       <c r="H199" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I199" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6713,11 +6713,11 @@
       </c>
       <c r="H200" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I200" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6744,11 +6744,11 @@
       </c>
       <c r="H201" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I201" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="H202" s="2">
         <f t="shared" ref="H202:I221" ca="1" si="10">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I202" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6806,11 +6806,11 @@
       </c>
       <c r="H203" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I203" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6837,11 +6837,11 @@
       </c>
       <c r="H204" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I204" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6868,11 +6868,11 @@
       </c>
       <c r="H205" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I205" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6899,11 +6899,11 @@
       </c>
       <c r="H206" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I206" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6930,11 +6930,11 @@
       </c>
       <c r="H207" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I207" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6961,11 +6961,11 @@
       </c>
       <c r="H208" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I208" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6992,11 +6992,11 @@
       </c>
       <c r="H209" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I209" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7023,11 +7023,11 @@
       </c>
       <c r="H210" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I210" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7054,11 +7054,11 @@
       </c>
       <c r="H211" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I211" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="H212" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I212" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7116,11 +7116,11 @@
       </c>
       <c r="H213" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I213" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7147,11 +7147,11 @@
       </c>
       <c r="H214" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I214" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7178,11 +7178,11 @@
       </c>
       <c r="H215" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I215" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7209,11 +7209,11 @@
       </c>
       <c r="H216" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I216" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7240,11 +7240,11 @@
       </c>
       <c r="H217" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I217" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7271,11 +7271,11 @@
       </c>
       <c r="H218" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I218" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7302,11 +7302,11 @@
       </c>
       <c r="H219" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I219" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7333,11 +7333,11 @@
       </c>
       <c r="H220" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I220" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7364,11 +7364,11 @@
       </c>
       <c r="H221" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I221" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7395,11 +7395,11 @@
       </c>
       <c r="H222" s="2">
         <f t="shared" ref="H222:I241" ca="1" si="11">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I222" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -7426,11 +7426,11 @@
       </c>
       <c r="H223" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I223" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -7457,11 +7457,11 @@
       </c>
       <c r="H224" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I224" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7488,11 +7488,11 @@
       </c>
       <c r="H225" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I225" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7519,11 +7519,11 @@
       </c>
       <c r="H226" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I226" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7550,11 +7550,11 @@
       </c>
       <c r="H227" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I227" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7581,11 +7581,11 @@
       </c>
       <c r="H228" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I228" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="H229" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I229" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7643,11 +7643,11 @@
       </c>
       <c r="H230" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I230" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7674,11 +7674,11 @@
       </c>
       <c r="H231" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I231" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7705,11 +7705,11 @@
       </c>
       <c r="H232" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I232" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,11 +7736,11 @@
       </c>
       <c r="H233" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I233" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7767,11 +7767,11 @@
       </c>
       <c r="H234" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I234" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7798,11 +7798,11 @@
       </c>
       <c r="H235" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I235" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7829,11 +7829,11 @@
       </c>
       <c r="H236" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I236" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7860,11 +7860,11 @@
       </c>
       <c r="H237" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I237" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7891,11 +7891,11 @@
       </c>
       <c r="H238" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I238" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7922,11 +7922,11 @@
       </c>
       <c r="H239" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I239" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7953,11 +7953,11 @@
       </c>
       <c r="H240" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I240" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7984,11 +7984,11 @@
       </c>
       <c r="H241" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I241" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8015,11 +8015,11 @@
       </c>
       <c r="H242" s="2">
         <f t="shared" ref="H242:I261" ca="1" si="12">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I242" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -8046,11 +8046,11 @@
       </c>
       <c r="H243" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I243" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8077,11 +8077,11 @@
       </c>
       <c r="H244" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I244" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8108,11 +8108,11 @@
       </c>
       <c r="H245" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I245" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8139,11 +8139,11 @@
       </c>
       <c r="H246" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I246" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8170,11 +8170,11 @@
       </c>
       <c r="H247" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I247" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8201,11 +8201,11 @@
       </c>
       <c r="H248" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I248" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8232,11 +8232,11 @@
       </c>
       <c r="H249" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I249" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="H250" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I250" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -8294,11 +8294,11 @@
       </c>
       <c r="H251" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I251" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="H252" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I252" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8356,11 +8356,11 @@
       </c>
       <c r="H253" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I253" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -8387,11 +8387,11 @@
       </c>
       <c r="H254" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I254" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -8418,11 +8418,11 @@
       </c>
       <c r="H255" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I255" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -8449,11 +8449,11 @@
       </c>
       <c r="H256" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I256" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="H257" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I257" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -8511,11 +8511,11 @@
       </c>
       <c r="H258" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I258" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -8542,11 +8542,11 @@
       </c>
       <c r="H259" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I259" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8573,11 +8573,11 @@
       </c>
       <c r="H260" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I260" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8604,11 +8604,11 @@
       </c>
       <c r="H261" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I261" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -8635,11 +8635,11 @@
       </c>
       <c r="H262" s="2">
         <f t="shared" ref="H262:I281" ca="1" si="13">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I262" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -8666,11 +8666,11 @@
       </c>
       <c r="H263" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I263" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -8697,11 +8697,11 @@
       </c>
       <c r="H264" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I264" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8728,11 +8728,11 @@
       </c>
       <c r="H265" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I265" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -8759,11 +8759,11 @@
       </c>
       <c r="H266" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I266" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8790,11 +8790,11 @@
       </c>
       <c r="H267" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I267" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -8821,11 +8821,11 @@
       </c>
       <c r="H268" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I268" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8852,11 +8852,11 @@
       </c>
       <c r="H269" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I269" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8883,11 +8883,11 @@
       </c>
       <c r="H270" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I270" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8914,11 +8914,11 @@
       </c>
       <c r="H271" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I271" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -8945,11 +8945,11 @@
       </c>
       <c r="H272" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I272" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8976,11 +8976,11 @@
       </c>
       <c r="H273" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I273" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9007,11 +9007,11 @@
       </c>
       <c r="H274" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I274" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9038,11 +9038,11 @@
       </c>
       <c r="H275" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I275" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9069,11 +9069,11 @@
       </c>
       <c r="H276" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I276" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9100,11 +9100,11 @@
       </c>
       <c r="H277" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I277" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9131,11 +9131,11 @@
       </c>
       <c r="H278" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I278" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9162,11 +9162,11 @@
       </c>
       <c r="H279" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I279" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9193,11 +9193,11 @@
       </c>
       <c r="H280" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I280" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -9224,11 +9224,11 @@
       </c>
       <c r="H281" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I281" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,11 +9255,11 @@
       </c>
       <c r="H282" s="2">
         <f t="shared" ref="H282:I301" ca="1" si="14">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I282" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -9286,11 +9286,11 @@
       </c>
       <c r="H283" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I283" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -9317,11 +9317,11 @@
       </c>
       <c r="H284" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I284" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -9348,11 +9348,11 @@
       </c>
       <c r="H285" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I285" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -9379,11 +9379,11 @@
       </c>
       <c r="H286" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I286" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -9410,11 +9410,11 @@
       </c>
       <c r="H287" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I287" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -9441,11 +9441,11 @@
       </c>
       <c r="H288" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I288" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -9472,11 +9472,11 @@
       </c>
       <c r="H289" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I289" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -9503,11 +9503,11 @@
       </c>
       <c r="H290" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I290" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -9534,11 +9534,11 @@
       </c>
       <c r="H291" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I291" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="H292" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I292" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -9596,11 +9596,11 @@
       </c>
       <c r="H293" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I293" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,11 +9627,11 @@
       </c>
       <c r="H294" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I294" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -9658,11 +9658,11 @@
       </c>
       <c r="H295" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I295" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -9689,11 +9689,11 @@
       </c>
       <c r="H296" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I296" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -9720,11 +9720,11 @@
       </c>
       <c r="H297" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I297" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="H298" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I298" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -9782,11 +9782,11 @@
       </c>
       <c r="H299" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I299" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -9813,11 +9813,11 @@
       </c>
       <c r="H300" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I300" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="H301" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I301" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -9875,11 +9875,11 @@
       </c>
       <c r="H302" s="2">
         <f t="shared" ref="H302:I321" ca="1" si="15">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I302" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -9906,11 +9906,11 @@
       </c>
       <c r="H303" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I303" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -9937,11 +9937,11 @@
       </c>
       <c r="H304" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I304" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -9968,11 +9968,11 @@
       </c>
       <c r="H305" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I305" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -9999,11 +9999,11 @@
       </c>
       <c r="H306" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I306" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10030,11 +10030,11 @@
       </c>
       <c r="H307" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I307" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10061,11 +10061,11 @@
       </c>
       <c r="H308" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I308" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10092,11 +10092,11 @@
       </c>
       <c r="H309" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I309" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10123,11 +10123,11 @@
       </c>
       <c r="H310" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I310" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10154,11 +10154,11 @@
       </c>
       <c r="H311" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I311" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10185,11 +10185,11 @@
       </c>
       <c r="H312" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I312" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -10216,11 +10216,11 @@
       </c>
       <c r="H313" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I313" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -10247,11 +10247,11 @@
       </c>
       <c r="H314" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I314" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -10278,11 +10278,11 @@
       </c>
       <c r="H315" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I315" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -10309,11 +10309,11 @@
       </c>
       <c r="H316" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I316" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -10340,11 +10340,11 @@
       </c>
       <c r="H317" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I317" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -10371,11 +10371,11 @@
       </c>
       <c r="H318" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I318" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -10402,11 +10402,11 @@
       </c>
       <c r="H319" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I319" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,11 +10433,11 @@
       </c>
       <c r="H320" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I320" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,11 +10464,11 @@
       </c>
       <c r="H321" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I321" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -10495,11 +10495,11 @@
       </c>
       <c r="H322" s="2">
         <f t="shared" ref="H322:I341" ca="1" si="16">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I322" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -10526,11 +10526,11 @@
       </c>
       <c r="H323" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I323" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -10557,11 +10557,11 @@
       </c>
       <c r="H324" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I324" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -10588,11 +10588,11 @@
       </c>
       <c r="H325" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I325" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -10619,11 +10619,11 @@
       </c>
       <c r="H326" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I326" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -10650,11 +10650,11 @@
       </c>
       <c r="H327" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I327" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -10681,11 +10681,11 @@
       </c>
       <c r="H328" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I328" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -10712,11 +10712,11 @@
       </c>
       <c r="H329" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I329" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -10743,11 +10743,11 @@
       </c>
       <c r="H330" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I330" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="H331" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I331" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -10805,11 +10805,11 @@
       </c>
       <c r="H332" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I332" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,11 +10836,11 @@
       </c>
       <c r="H333" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I333" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -10867,11 +10867,11 @@
       </c>
       <c r="H334" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I334" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,11 +10898,11 @@
       </c>
       <c r="H335" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I335" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -10929,11 +10929,11 @@
       </c>
       <c r="H336" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I336" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -10960,11 +10960,11 @@
       </c>
       <c r="H337" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I337" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -10991,11 +10991,11 @@
       </c>
       <c r="H338" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I338" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11022,11 +11022,11 @@
       </c>
       <c r="H339" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I339" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11053,11 +11053,11 @@
       </c>
       <c r="H340" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I340" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11084,11 +11084,11 @@
       </c>
       <c r="H341" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I341" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11115,11 +11115,11 @@
       </c>
       <c r="H342" s="2">
         <f t="shared" ref="H342:I358" ca="1" si="17">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I342" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11146,11 +11146,11 @@
       </c>
       <c r="H343" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I343" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11177,11 +11177,11 @@
       </c>
       <c r="H344" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I344" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -11208,11 +11208,11 @@
       </c>
       <c r="H345" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I345" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="H346" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I346" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -11270,11 +11270,11 @@
       </c>
       <c r="H347" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I347" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -11301,11 +11301,11 @@
       </c>
       <c r="H348" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I348" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -11332,11 +11332,11 @@
       </c>
       <c r="H349" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I349" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -11363,11 +11363,11 @@
       </c>
       <c r="H350" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I350" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -11394,11 +11394,11 @@
       </c>
       <c r="H351" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I351" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -11425,11 +11425,11 @@
       </c>
       <c r="H352" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I352" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -11456,11 +11456,11 @@
       </c>
       <c r="H353" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I353" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -11487,11 +11487,11 @@
       </c>
       <c r="H354" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I354" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -11518,11 +11518,11 @@
       </c>
       <c r="H355" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I355" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -11549,11 +11549,11 @@
       </c>
       <c r="H356" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I356" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -11580,11 +11580,11 @@
       </c>
       <c r="H357" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I357" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -11611,11 +11611,11 @@
       </c>
       <c r="H358" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I358" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -11642,11 +11642,11 @@
       </c>
       <c r="H359" s="2">
         <f t="shared" ref="H359:I374" ca="1" si="18">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I359" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -11673,11 +11673,11 @@
       </c>
       <c r="H360" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I360" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -11704,11 +11704,11 @@
       </c>
       <c r="H361" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I361" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="H362" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I362" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -11766,11 +11766,11 @@
       </c>
       <c r="H363" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I363" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -11797,11 +11797,11 @@
       </c>
       <c r="H364" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I364" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -11828,11 +11828,11 @@
       </c>
       <c r="H365" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I365" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -11859,11 +11859,11 @@
       </c>
       <c r="H366" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I366" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -11890,11 +11890,11 @@
       </c>
       <c r="H367" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I367" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -11921,11 +11921,11 @@
       </c>
       <c r="H368" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I368" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -11952,11 +11952,11 @@
       </c>
       <c r="H369" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I369" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -11983,11 +11983,11 @@
       </c>
       <c r="H370" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I370" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -12014,11 +12014,11 @@
       </c>
       <c r="H371" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I371" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -12045,11 +12045,11 @@
       </c>
       <c r="H372" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I372" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -12076,11 +12076,11 @@
       </c>
       <c r="H373" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I373" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -12107,11 +12107,11 @@
       </c>
       <c r="H374" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I374" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -12138,11 +12138,11 @@
       </c>
       <c r="H375" s="2">
         <f t="shared" ref="H375:I390" ca="1" si="19">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I375" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -12169,11 +12169,11 @@
       </c>
       <c r="H376" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I376" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -12200,11 +12200,11 @@
       </c>
       <c r="H377" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I377" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -12231,11 +12231,11 @@
       </c>
       <c r="H378" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I378" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -12262,11 +12262,11 @@
       </c>
       <c r="H379" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I379" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -12293,11 +12293,11 @@
       </c>
       <c r="H380" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I380" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -12324,11 +12324,11 @@
       </c>
       <c r="H381" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I381" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -12355,11 +12355,11 @@
       </c>
       <c r="H382" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I382" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -12386,11 +12386,11 @@
       </c>
       <c r="H383" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I383" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -12417,11 +12417,11 @@
       </c>
       <c r="H384" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I384" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -12448,11 +12448,11 @@
       </c>
       <c r="H385" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I385" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -12479,11 +12479,11 @@
       </c>
       <c r="H386" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I386" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -12510,11 +12510,11 @@
       </c>
       <c r="H387" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I387" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -12541,11 +12541,11 @@
       </c>
       <c r="H388" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I388" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -12572,11 +12572,11 @@
       </c>
       <c r="H389" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I389" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -12603,11 +12603,11 @@
       </c>
       <c r="H390" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I390" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -12634,11 +12634,11 @@
       </c>
       <c r="H391" s="2">
         <f t="shared" ref="H391:I419" ca="1" si="20">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I391" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -12665,11 +12665,11 @@
       </c>
       <c r="H392" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I392" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -12696,11 +12696,11 @@
       </c>
       <c r="H393" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I393" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="H394" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I394" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -12758,11 +12758,11 @@
       </c>
       <c r="H395" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I395" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -12789,11 +12789,11 @@
       </c>
       <c r="H396" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I396" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -12820,11 +12820,11 @@
       </c>
       <c r="H397" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I397" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -12851,11 +12851,11 @@
       </c>
       <c r="H398" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I398" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -12882,11 +12882,11 @@
       </c>
       <c r="H399" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I399" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -12913,11 +12913,11 @@
       </c>
       <c r="H400" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I400" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -12944,11 +12944,11 @@
       </c>
       <c r="H401" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I401" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -12975,11 +12975,11 @@
       </c>
       <c r="H402" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I402" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -13006,11 +13006,11 @@
       </c>
       <c r="H403" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I403" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -13037,11 +13037,11 @@
       </c>
       <c r="H404" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I404" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -13068,11 +13068,11 @@
       </c>
       <c r="H405" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I405" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="H406" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I406" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -13130,11 +13130,11 @@
       </c>
       <c r="H407" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I407" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -13161,11 +13161,11 @@
       </c>
       <c r="H408" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I408" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -13192,11 +13192,11 @@
       </c>
       <c r="H409" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I409" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -13223,11 +13223,11 @@
       </c>
       <c r="H410" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I410" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -13254,11 +13254,11 @@
       </c>
       <c r="H411" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I411" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -13285,11 +13285,11 @@
       </c>
       <c r="H412" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I412" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -13316,11 +13316,11 @@
       </c>
       <c r="H413" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I413" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -13347,11 +13347,11 @@
       </c>
       <c r="H414" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I414" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -13378,16 +13378,16 @@
       </c>
       <c r="H415" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I415" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B416">
         <v>70</v>
@@ -13409,11 +13409,11 @@
       </c>
       <c r="H416" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I416" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -13440,11 +13440,11 @@
       </c>
       <c r="H417" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I417" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -13471,11 +13471,11 @@
       </c>
       <c r="H418" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I418" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -13502,11 +13502,11 @@
       </c>
       <c r="H419" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I419" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -13533,11 +13533,11 @@
       </c>
       <c r="H420" s="2">
         <f t="shared" ref="H420:I451" ca="1" si="21">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I420" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -13564,11 +13564,11 @@
       </c>
       <c r="H421" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I421" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -13595,11 +13595,11 @@
       </c>
       <c r="H422" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I422" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -13626,11 +13626,11 @@
       </c>
       <c r="H423" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I423" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -13657,11 +13657,11 @@
       </c>
       <c r="H424" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I424" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="H425" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I425" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -13719,11 +13719,11 @@
       </c>
       <c r="H426" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I426" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -13750,11 +13750,11 @@
       </c>
       <c r="H427" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I427" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -13781,11 +13781,11 @@
       </c>
       <c r="H428" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I428" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -13812,11 +13812,11 @@
       </c>
       <c r="H429" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I429" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -13843,11 +13843,11 @@
       </c>
       <c r="H430" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I430" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -13874,11 +13874,11 @@
       </c>
       <c r="H431" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I431" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -13905,11 +13905,11 @@
       </c>
       <c r="H432" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I432" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -13936,11 +13936,11 @@
       </c>
       <c r="H433" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I433" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -13967,11 +13967,11 @@
       </c>
       <c r="H434" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I434" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -13998,11 +13998,11 @@
       </c>
       <c r="H435" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I435" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -14029,11 +14029,11 @@
       </c>
       <c r="H436" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I436" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -14060,11 +14060,11 @@
       </c>
       <c r="H437" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I437" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -14091,11 +14091,11 @@
       </c>
       <c r="H438" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I438" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -14122,11 +14122,11 @@
       </c>
       <c r="H439" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I439" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -14153,11 +14153,11 @@
       </c>
       <c r="H440" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I440" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -14184,11 +14184,11 @@
       </c>
       <c r="H441" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I441" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="H442" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I442" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -14246,11 +14246,11 @@
       </c>
       <c r="H443" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I443" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -14277,11 +14277,11 @@
       </c>
       <c r="H444" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I444" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -14308,11 +14308,11 @@
       </c>
       <c r="H445" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I445" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -14339,11 +14339,11 @@
       </c>
       <c r="H446" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I446" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -14370,11 +14370,11 @@
       </c>
       <c r="H447" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I447" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -14401,11 +14401,11 @@
       </c>
       <c r="H448" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I448" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -14432,11 +14432,11 @@
       </c>
       <c r="H449" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I449" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -14463,11 +14463,11 @@
       </c>
       <c r="H450" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I450" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -14494,11 +14494,11 @@
       </c>
       <c r="H451" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I451" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -14525,11 +14525,11 @@
       </c>
       <c r="H452" s="2">
         <f t="shared" ref="H452:I476" ca="1" si="22">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I452" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -14556,11 +14556,11 @@
       </c>
       <c r="H453" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I453" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -14587,11 +14587,11 @@
       </c>
       <c r="H454" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I454" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -14618,11 +14618,11 @@
       </c>
       <c r="H455" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I455" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -14649,11 +14649,11 @@
       </c>
       <c r="H456" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I456" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -14680,11 +14680,11 @@
       </c>
       <c r="H457" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I457" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -14711,11 +14711,11 @@
       </c>
       <c r="H458" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I458" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -14742,11 +14742,11 @@
       </c>
       <c r="H459" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I459" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -14773,11 +14773,11 @@
       </c>
       <c r="H460" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I460" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -14804,11 +14804,11 @@
       </c>
       <c r="H461" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I461" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -14835,11 +14835,11 @@
       </c>
       <c r="H462" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I462" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -14866,11 +14866,11 @@
       </c>
       <c r="H463" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I463" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -14897,11 +14897,11 @@
       </c>
       <c r="H464" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I464" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -14928,11 +14928,11 @@
       </c>
       <c r="H465" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I465" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -14959,11 +14959,11 @@
       </c>
       <c r="H466" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I466" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -14990,11 +14990,11 @@
       </c>
       <c r="H467" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I467" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -15021,11 +15021,11 @@
       </c>
       <c r="H468" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I468" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -15052,11 +15052,11 @@
       </c>
       <c r="H469" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I469" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -15083,11 +15083,11 @@
       </c>
       <c r="H470" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I470" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -15114,11 +15114,11 @@
       </c>
       <c r="H471" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I471" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -15145,11 +15145,11 @@
       </c>
       <c r="H472" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I472" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -15176,11 +15176,11 @@
       </c>
       <c r="H473" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I473" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -15207,11 +15207,11 @@
       </c>
       <c r="H474" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I474" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
@@ -15238,11 +15238,11 @@
       </c>
       <c r="H475" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I475" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -15269,11 +15269,11 @@
       </c>
       <c r="H476" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I476" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -15300,11 +15300,11 @@
       </c>
       <c r="H477" s="2">
         <f t="shared" ref="H477:I503" ca="1" si="23">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I477" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -15331,11 +15331,11 @@
       </c>
       <c r="H478" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I478" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -15362,11 +15362,11 @@
       </c>
       <c r="H479" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I479" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -15393,11 +15393,11 @@
       </c>
       <c r="H480" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I480" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -15424,11 +15424,11 @@
       </c>
       <c r="H481" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I481" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -15455,11 +15455,11 @@
       </c>
       <c r="H482" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I482" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -15486,11 +15486,11 @@
       </c>
       <c r="H483" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I483" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -15517,11 +15517,11 @@
       </c>
       <c r="H484" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I484" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -15548,11 +15548,11 @@
       </c>
       <c r="H485" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I485" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -15579,11 +15579,11 @@
       </c>
       <c r="H486" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I486" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -15610,11 +15610,11 @@
       </c>
       <c r="H487" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I487" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -15641,11 +15641,11 @@
       </c>
       <c r="H488" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I488" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -15672,11 +15672,11 @@
       </c>
       <c r="H489" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I489" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="H490" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I490" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -15734,11 +15734,11 @@
       </c>
       <c r="H491" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I491" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -15765,11 +15765,11 @@
       </c>
       <c r="H492" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I492" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -15796,11 +15796,11 @@
       </c>
       <c r="H493" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I493" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -15827,11 +15827,11 @@
       </c>
       <c r="H494" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I494" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -15858,11 +15858,11 @@
       </c>
       <c r="H495" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I495" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -15889,11 +15889,11 @@
       </c>
       <c r="H496" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I496" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -15920,11 +15920,11 @@
       </c>
       <c r="H497" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I497" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -15951,11 +15951,11 @@
       </c>
       <c r="H498" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I498" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -15982,11 +15982,11 @@
       </c>
       <c r="H499" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I499" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -16013,11 +16013,11 @@
       </c>
       <c r="H500" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I500" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -16044,11 +16044,11 @@
       </c>
       <c r="H501" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I501" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -16075,11 +16075,11 @@
       </c>
       <c r="H502" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I502" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -16106,11 +16106,11 @@
       </c>
       <c r="H503" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I503" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -16137,11 +16137,11 @@
       </c>
       <c r="H504" s="2">
         <f t="shared" ref="H504:I527" ca="1" si="24">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I504" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -16168,11 +16168,11 @@
       </c>
       <c r="H505" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I505" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
@@ -16199,11 +16199,11 @@
       </c>
       <c r="H506" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I506" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -16230,11 +16230,11 @@
       </c>
       <c r="H507" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I507" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -16261,11 +16261,11 @@
       </c>
       <c r="H508" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I508" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -16292,11 +16292,11 @@
       </c>
       <c r="H509" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I509" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -16323,11 +16323,11 @@
       </c>
       <c r="H510" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I510" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -16354,11 +16354,11 @@
       </c>
       <c r="H511" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I511" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -16385,11 +16385,11 @@
       </c>
       <c r="H512" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I512" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
@@ -16416,11 +16416,11 @@
       </c>
       <c r="H513" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I513" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -16447,11 +16447,11 @@
       </c>
       <c r="H514" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I514" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
@@ -16478,11 +16478,11 @@
       </c>
       <c r="H515" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I515" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -16509,11 +16509,11 @@
       </c>
       <c r="H516" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I516" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -16540,11 +16540,11 @@
       </c>
       <c r="H517" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I517" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -16571,11 +16571,11 @@
       </c>
       <c r="H518" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I518" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -16602,11 +16602,11 @@
       </c>
       <c r="H519" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I519" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -16633,11 +16633,11 @@
       </c>
       <c r="H520" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I520" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
@@ -16664,11 +16664,11 @@
       </c>
       <c r="H521" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I521" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
@@ -16695,11 +16695,11 @@
       </c>
       <c r="H522" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I522" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -16726,11 +16726,11 @@
       </c>
       <c r="H523" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I523" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -16757,11 +16757,11 @@
       </c>
       <c r="H524" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I524" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -16788,11 +16788,11 @@
       </c>
       <c r="H525" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I525" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -16819,11 +16819,11 @@
       </c>
       <c r="H526" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I526" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -16850,11 +16850,11 @@
       </c>
       <c r="H527" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I527" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -16881,11 +16881,11 @@
       </c>
       <c r="H528" s="2">
         <f t="shared" ref="H528:I551" ca="1" si="25">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I528" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
@@ -16912,11 +16912,11 @@
       </c>
       <c r="H529" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I529" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
@@ -16943,11 +16943,11 @@
       </c>
       <c r="H530" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I530" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
@@ -16974,11 +16974,11 @@
       </c>
       <c r="H531" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I531" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -17005,11 +17005,11 @@
       </c>
       <c r="H532" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I532" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -17036,11 +17036,11 @@
       </c>
       <c r="H533" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I533" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -17067,11 +17067,11 @@
       </c>
       <c r="H534" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I534" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -17098,11 +17098,11 @@
       </c>
       <c r="H535" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I535" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
@@ -17129,11 +17129,11 @@
       </c>
       <c r="H536" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I536" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
@@ -17160,11 +17160,11 @@
       </c>
       <c r="H537" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I537" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
@@ -17191,11 +17191,11 @@
       </c>
       <c r="H538" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I538" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -17222,11 +17222,11 @@
       </c>
       <c r="H539" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I539" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -17253,11 +17253,11 @@
       </c>
       <c r="H540" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I540" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -17284,11 +17284,11 @@
       </c>
       <c r="H541" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I541" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -17315,11 +17315,11 @@
       </c>
       <c r="H542" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I542" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -17346,11 +17346,11 @@
       </c>
       <c r="H543" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I543" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
@@ -17377,11 +17377,11 @@
       </c>
       <c r="H544" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I544" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
@@ -17408,11 +17408,11 @@
       </c>
       <c r="H545" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I545" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
@@ -17439,11 +17439,11 @@
       </c>
       <c r="H546" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I546" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -17470,11 +17470,11 @@
       </c>
       <c r="H547" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I547" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
@@ -17501,11 +17501,11 @@
       </c>
       <c r="H548" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I548" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
@@ -17532,11 +17532,11 @@
       </c>
       <c r="H549" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I549" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -17563,11 +17563,11 @@
       </c>
       <c r="H550" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I550" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
@@ -17594,11 +17594,11 @@
       </c>
       <c r="H551" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I551" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
@@ -17625,11 +17625,11 @@
       </c>
       <c r="H552" s="2">
         <f t="shared" ref="H552:I567" ca="1" si="26">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I552" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
@@ -17656,11 +17656,11 @@
       </c>
       <c r="H553" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I553" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
@@ -17687,11 +17687,11 @@
       </c>
       <c r="H554" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I554" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
@@ -17718,11 +17718,11 @@
       </c>
       <c r="H555" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I555" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
@@ -17749,11 +17749,11 @@
       </c>
       <c r="H556" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I556" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
@@ -17780,11 +17780,11 @@
       </c>
       <c r="H557" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I557" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
@@ -17811,11 +17811,11 @@
       </c>
       <c r="H558" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I558" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
@@ -17842,11 +17842,11 @@
       </c>
       <c r="H559" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I559" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -17873,11 +17873,11 @@
       </c>
       <c r="H560" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I560" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -17904,11 +17904,11 @@
       </c>
       <c r="H561" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I561" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
@@ -17935,11 +17935,11 @@
       </c>
       <c r="H562" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I562" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
@@ -17966,11 +17966,11 @@
       </c>
       <c r="H563" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I563" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -17997,11 +17997,11 @@
       </c>
       <c r="H564" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I564" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
@@ -18028,11 +18028,11 @@
       </c>
       <c r="H565" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I565" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -18059,11 +18059,11 @@
       </c>
       <c r="H566" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I566" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -18090,11 +18090,11 @@
       </c>
       <c r="H567" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I567" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
@@ -18121,11 +18121,11 @@
       </c>
       <c r="H568" s="2">
         <f t="shared" ref="H568:I582" ca="1" si="27">NOW()</f>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I568" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -18152,11 +18152,11 @@
       </c>
       <c r="H569" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I569" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -18183,11 +18183,11 @@
       </c>
       <c r="H570" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I570" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -18214,11 +18214,11 @@
       </c>
       <c r="H571" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I571" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -18245,11 +18245,11 @@
       </c>
       <c r="H572" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I572" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
@@ -18276,11 +18276,11 @@
       </c>
       <c r="H573" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I573" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -18307,11 +18307,11 @@
       </c>
       <c r="H574" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I574" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
@@ -18338,11 +18338,11 @@
       </c>
       <c r="H575" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I575" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
@@ -18369,11 +18369,11 @@
       </c>
       <c r="H576" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I576" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -18400,11 +18400,11 @@
       </c>
       <c r="H577" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I577" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="H578" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I578" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -18462,11 +18462,11 @@
       </c>
       <c r="H579" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I579" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -18493,11 +18493,11 @@
       </c>
       <c r="H580" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I580" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -18524,11 +18524,11 @@
       </c>
       <c r="H581" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I581" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -18555,11 +18555,11 @@
       </c>
       <c r="H582" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
       <c r="I582" s="2">
         <f t="shared" ca="1" si="27"/>
-        <v>43127.743860995368</v>
+        <v>43130.86999259259</v>
       </c>
     </row>
   </sheetData>
